--- a/Copy of Rule Book for designers.xlsx
+++ b/Copy of Rule Book for designers.xlsx
@@ -2343,11 +2343,16 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>-The event consists of dance and acting performances.
+      <t xml:space="preserve">-The event consists of dance and acting performances.
 -Participants can choose dance, singing, or acting and perform as any Kannada artist.
 -Specific time will be alloted for each performance.
 -Using informal language and misbehaving during the event is strictly prohibited.
--Judges decision will be final.</t>
+-Judges decision will be final
+-Time limit is 3+1
+-Exceeding time limit leads to negative marking
+-Props and makeup are allowed at participants risk
+-For dance submit the respective music track to Ec's contact at prior(after Editing to limited time)
+</t>
     </r>
   </si>
   <si>
@@ -4409,6 +4414,9 @@
     <xf borderId="6" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -4456,9 +4464,6 @@
     <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -15729,7 +15734,7 @@
       <c r="E292" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="F292" s="10" t="s">
+      <c r="F292" s="63" t="s">
         <v>278</v>
       </c>
       <c r="G292" s="6"/>
@@ -16476,7 +16481,7 @@
         <v>293</v>
       </c>
       <c r="D312" s="6"/>
-      <c r="E312" s="63" t="s">
+      <c r="E312" s="64" t="s">
         <v>294</v>
       </c>
       <c r="F312" s="10" t="s">
@@ -16500,13 +16505,13 @@
       <c r="N312" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="O312" s="64">
+      <c r="O312" s="65">
         <v>8.088979509E9</v>
       </c>
-      <c r="P312" s="65" t="s">
+      <c r="P312" s="66" t="s">
         <v>297</v>
       </c>
-      <c r="Q312" s="66">
+      <c r="Q312" s="67">
         <v>8.792741377E9</v>
       </c>
       <c r="R312" s="15" t="s">
@@ -16888,7 +16893,7 @@
       </c>
       <c r="S322" s="16"/>
       <c r="T322" s="17"/>
-      <c r="U322" s="67"/>
+      <c r="U322" s="68"/>
       <c r="V322" s="19" t="s">
         <v>306</v>
       </c>
@@ -17588,16 +17593,16 @@
       <c r="AG341" s="20"/>
     </row>
     <row r="342">
-      <c r="A342" s="68" t="s">
+      <c r="A342" s="69" t="s">
         <v>316</v>
       </c>
-      <c r="B342" s="69" t="s">
+      <c r="B342" s="70" t="s">
         <v>317</v>
       </c>
-      <c r="C342" s="69" t="s">
+      <c r="C342" s="70" t="s">
         <v>318</v>
       </c>
-      <c r="D342" s="70"/>
+      <c r="D342" s="71"/>
       <c r="E342" s="46" t="s">
         <v>319</v>
       </c>
@@ -17631,7 +17636,7 @@
       <c r="Q342" s="5">
         <v>7.975734367E9</v>
       </c>
-      <c r="R342" s="71" t="s">
+      <c r="R342" s="72" t="s">
         <v>323</v>
       </c>
       <c r="S342" s="16" t="s">
@@ -17964,16 +17969,16 @@
       <c r="AG351" s="20"/>
     </row>
     <row r="352">
-      <c r="A352" s="72" t="s">
+      <c r="A352" s="73" t="s">
         <v>326</v>
       </c>
-      <c r="B352" s="73" t="s">
+      <c r="B352" s="74" t="s">
         <v>327</v>
       </c>
-      <c r="C352" s="73" t="s">
+      <c r="C352" s="74" t="s">
         <v>328</v>
       </c>
-      <c r="D352" s="74"/>
+      <c r="D352" s="75"/>
       <c r="E352" s="46" t="s">
         <v>329</v>
       </c>
@@ -18007,7 +18012,7 @@
       <c r="Q352" s="5">
         <v>7.975519844E9</v>
       </c>
-      <c r="R352" s="71" t="s">
+      <c r="R352" s="72" t="s">
         <v>333</v>
       </c>
       <c r="S352" s="16"/>
@@ -18338,16 +18343,16 @@
       <c r="AG361" s="20"/>
     </row>
     <row r="362">
-      <c r="A362" s="72" t="s">
+      <c r="A362" s="73" t="s">
         <v>335</v>
       </c>
-      <c r="B362" s="75" t="s">
+      <c r="B362" s="76" t="s">
         <v>336</v>
       </c>
-      <c r="C362" s="75" t="s">
+      <c r="C362" s="76" t="s">
         <v>337</v>
       </c>
-      <c r="D362" s="74"/>
+      <c r="D362" s="75"/>
       <c r="E362" s="46" t="s">
         <v>338</v>
       </c>
@@ -18381,7 +18386,7 @@
       <c r="Q362" s="5">
         <v>9.591321624E9</v>
       </c>
-      <c r="R362" s="71" t="s">
+      <c r="R362" s="72" t="s">
         <v>342</v>
       </c>
       <c r="S362" s="16"/>
@@ -18712,16 +18717,16 @@
       <c r="AG371" s="20"/>
     </row>
     <row r="372">
-      <c r="A372" s="72" t="s">
+      <c r="A372" s="73" t="s">
         <v>344</v>
       </c>
-      <c r="B372" s="73" t="s">
+      <c r="B372" s="74" t="s">
         <v>345</v>
       </c>
-      <c r="C372" s="75" t="s">
+      <c r="C372" s="76" t="s">
         <v>346</v>
       </c>
-      <c r="D372" s="76" t="s">
+      <c r="D372" s="77" t="s">
         <v>347</v>
       </c>
       <c r="E372" s="10" t="s">
@@ -18757,7 +18762,7 @@
       <c r="Q372" s="5">
         <v>9.741120628E9</v>
       </c>
-      <c r="R372" s="71" t="s">
+      <c r="R372" s="72" t="s">
         <v>351</v>
       </c>
       <c r="S372" s="16"/>
@@ -19088,16 +19093,16 @@
       <c r="AG381" s="20"/>
     </row>
     <row r="382">
-      <c r="A382" s="72" t="s">
+      <c r="A382" s="73" t="s">
         <v>354</v>
       </c>
-      <c r="B382" s="73" t="s">
+      <c r="B382" s="74" t="s">
         <v>355</v>
       </c>
-      <c r="C382" s="73" t="s">
+      <c r="C382" s="74" t="s">
         <v>356</v>
       </c>
-      <c r="D382" s="73" t="s">
+      <c r="D382" s="74" t="s">
         <v>357</v>
       </c>
       <c r="E382" s="10" t="s">
@@ -19127,7 +19132,7 @@
       <c r="O382" s="5">
         <v>9.481244339E9</v>
       </c>
-      <c r="P382" s="77" t="s">
+      <c r="P382" s="78" t="s">
         <v>361</v>
       </c>
       <c r="Q382" s="5">
@@ -19455,16 +19460,16 @@
       <c r="AG391" s="20"/>
     </row>
     <row r="392">
-      <c r="A392" s="72" t="s">
+      <c r="A392" s="73" t="s">
         <v>364</v>
       </c>
-      <c r="B392" s="73" t="s">
+      <c r="B392" s="74" t="s">
         <v>365</v>
       </c>
-      <c r="C392" s="73" t="s">
+      <c r="C392" s="74" t="s">
         <v>366</v>
       </c>
-      <c r="D392" s="73" t="s">
+      <c r="D392" s="74" t="s">
         <v>367</v>
       </c>
       <c r="E392" s="10" t="s">
@@ -19494,13 +19499,13 @@
       <c r="O392" s="5">
         <v>7.322061094E9</v>
       </c>
-      <c r="P392" s="77" t="s">
+      <c r="P392" s="78" t="s">
         <v>371</v>
       </c>
       <c r="Q392" s="5">
         <v>9.631690896E9</v>
       </c>
-      <c r="R392" s="71" t="s">
+      <c r="R392" s="72" t="s">
         <v>372</v>
       </c>
       <c r="S392" s="16"/>
@@ -19822,16 +19827,16 @@
       <c r="AG401" s="20"/>
     </row>
     <row r="402">
-      <c r="A402" s="72" t="s">
+      <c r="A402" s="73" t="s">
         <v>374</v>
       </c>
-      <c r="B402" s="73" t="s">
+      <c r="B402" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="C402" s="73" t="s">
+      <c r="C402" s="74" t="s">
         <v>376</v>
       </c>
-      <c r="D402" s="74"/>
+      <c r="D402" s="75"/>
       <c r="E402" s="10" t="s">
         <v>377</v>
       </c>
@@ -19865,7 +19870,7 @@
       <c r="Q402" s="5">
         <v>7.348827878E9</v>
       </c>
-      <c r="R402" s="71" t="s">
+      <c r="R402" s="72" t="s">
         <v>381</v>
       </c>
       <c r="S402" s="16"/>
@@ -20196,25 +20201,25 @@
       <c r="AG411" s="20"/>
     </row>
     <row r="412">
-      <c r="A412" s="72" t="s">
+      <c r="A412" s="73" t="s">
         <v>383</v>
       </c>
-      <c r="B412" s="73" t="s">
+      <c r="B412" s="74" t="s">
         <v>384</v>
       </c>
-      <c r="C412" s="73" t="s">
+      <c r="C412" s="74" t="s">
         <v>385</v>
       </c>
-      <c r="D412" s="74"/>
+      <c r="D412" s="75"/>
       <c r="E412" s="46" t="s">
         <v>386</v>
       </c>
       <c r="F412" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="G412" s="74"/>
-      <c r="H412" s="74"/>
-      <c r="I412" s="74"/>
+      <c r="G412" s="75"/>
+      <c r="H412" s="75"/>
+      <c r="I412" s="75"/>
       <c r="J412" s="5" t="s">
         <v>28</v>
       </c>
@@ -20239,11 +20244,11 @@
       <c r="Q412" s="5">
         <v>8.1237223E9</v>
       </c>
-      <c r="R412" s="78" t="s">
+      <c r="R412" s="79" t="s">
         <v>390</v>
       </c>
       <c r="S412" s="16"/>
-      <c r="T412" s="79"/>
+      <c r="T412" s="80"/>
       <c r="U412" s="18" t="s">
         <v>352</v>
       </c>
@@ -20570,25 +20575,25 @@
       <c r="AG421" s="20"/>
     </row>
     <row r="422">
-      <c r="A422" s="72" t="s">
+      <c r="A422" s="73" t="s">
         <v>383</v>
       </c>
-      <c r="B422" s="73" t="s">
+      <c r="B422" s="74" t="s">
         <v>392</v>
       </c>
-      <c r="C422" s="73" t="s">
+      <c r="C422" s="74" t="s">
         <v>393</v>
       </c>
-      <c r="D422" s="74"/>
+      <c r="D422" s="75"/>
       <c r="E422" s="46" t="s">
         <v>394</v>
       </c>
       <c r="F422" s="46" t="s">
         <v>395</v>
       </c>
-      <c r="G422" s="74"/>
-      <c r="H422" s="74"/>
-      <c r="I422" s="74"/>
+      <c r="G422" s="75"/>
+      <c r="H422" s="75"/>
+      <c r="I422" s="75"/>
       <c r="J422" s="5" t="s">
         <v>28</v>
       </c>
@@ -20613,11 +20618,11 @@
       <c r="Q422" s="5">
         <v>8.867742663E9</v>
       </c>
-      <c r="R422" s="78" t="s">
+      <c r="R422" s="79" t="s">
         <v>398</v>
       </c>
       <c r="S422" s="16"/>
-      <c r="T422" s="79"/>
+      <c r="T422" s="80"/>
       <c r="U422" s="18" t="s">
         <v>399</v>
       </c>
@@ -20944,25 +20949,25 @@
       <c r="AG431" s="20"/>
     </row>
     <row r="432">
-      <c r="A432" s="80" t="s">
+      <c r="A432" s="81" t="s">
         <v>401</v>
       </c>
-      <c r="B432" s="75" t="s">
+      <c r="B432" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="C432" s="75" t="s">
+      <c r="C432" s="76" t="s">
         <v>403</v>
       </c>
-      <c r="D432" s="74"/>
-      <c r="E432" s="81" t="s">
+      <c r="D432" s="75"/>
+      <c r="E432" s="82" t="s">
         <v>404</v>
       </c>
       <c r="F432" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="G432" s="74"/>
-      <c r="H432" s="74"/>
-      <c r="I432" s="74"/>
+      <c r="G432" s="75"/>
+      <c r="H432" s="75"/>
+      <c r="I432" s="75"/>
       <c r="J432" s="5" t="s">
         <v>48</v>
       </c>
@@ -20985,13 +20990,13 @@
       <c r="Q432" s="5">
         <v>9.513126848E9</v>
       </c>
-      <c r="R432" s="82" t="s">
+      <c r="R432" s="83" t="s">
         <v>408</v>
       </c>
       <c r="S432" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="T432" s="79"/>
+      <c r="T432" s="80"/>
       <c r="U432" s="5" t="s">
         <v>42</v>
       </c>
@@ -21318,25 +21323,25 @@
       <c r="AG441" s="20"/>
     </row>
     <row r="442">
-      <c r="A442" s="80" t="s">
+      <c r="A442" s="81" t="s">
         <v>401</v>
       </c>
-      <c r="B442" s="75" t="s">
+      <c r="B442" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="C442" s="75" t="s">
+      <c r="C442" s="76" t="s">
         <v>411</v>
       </c>
-      <c r="D442" s="74"/>
+      <c r="D442" s="75"/>
       <c r="E442" s="46" t="s">
         <v>412</v>
       </c>
       <c r="F442" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="G442" s="74"/>
-      <c r="H442" s="74"/>
-      <c r="I442" s="74"/>
+      <c r="G442" s="75"/>
+      <c r="H442" s="75"/>
+      <c r="I442" s="75"/>
       <c r="J442" s="5" t="s">
         <v>102</v>
       </c>
@@ -21359,11 +21364,11 @@
       <c r="Q442" s="5">
         <v>9.880683581E9</v>
       </c>
-      <c r="R442" s="82" t="s">
+      <c r="R442" s="83" t="s">
         <v>416</v>
       </c>
       <c r="S442" s="16"/>
-      <c r="T442" s="79"/>
+      <c r="T442" s="80"/>
       <c r="U442" s="5" t="s">
         <v>42</v>
       </c>
@@ -21690,25 +21695,25 @@
       <c r="AG451" s="20"/>
     </row>
     <row r="452">
-      <c r="A452" s="80" t="s">
+      <c r="A452" s="81" t="s">
         <v>401</v>
       </c>
-      <c r="B452" s="75" t="s">
+      <c r="B452" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="C452" s="75" t="s">
+      <c r="C452" s="76" t="s">
         <v>418</v>
       </c>
-      <c r="D452" s="74"/>
+      <c r="D452" s="75"/>
       <c r="E452" s="46" t="s">
         <v>419</v>
       </c>
-      <c r="F452" s="83" t="s">
+      <c r="F452" s="63" t="s">
         <v>420</v>
       </c>
-      <c r="G452" s="74"/>
-      <c r="H452" s="74"/>
-      <c r="I452" s="74"/>
+      <c r="G452" s="75"/>
+      <c r="H452" s="75"/>
+      <c r="I452" s="75"/>
       <c r="J452" s="5" t="s">
         <v>48</v>
       </c>
@@ -21731,11 +21736,11 @@
       <c r="Q452" s="5">
         <v>8.971362127E9</v>
       </c>
-      <c r="R452" s="82" t="s">
+      <c r="R452" s="83" t="s">
         <v>423</v>
       </c>
       <c r="S452" s="16"/>
-      <c r="T452" s="79"/>
+      <c r="T452" s="80"/>
       <c r="U452" s="5" t="s">
         <v>42</v>
       </c>
@@ -22062,25 +22067,25 @@
       <c r="AG461" s="20"/>
     </row>
     <row r="462">
-      <c r="A462" s="80" t="s">
+      <c r="A462" s="81" t="s">
         <v>401</v>
       </c>
-      <c r="B462" s="75" t="s">
+      <c r="B462" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="C462" s="75" t="s">
+      <c r="C462" s="76" t="s">
         <v>425</v>
       </c>
-      <c r="D462" s="74"/>
+      <c r="D462" s="75"/>
       <c r="E462" s="46" t="s">
         <v>426</v>
       </c>
-      <c r="F462" s="83" t="s">
+      <c r="F462" s="63" t="s">
         <v>427</v>
       </c>
-      <c r="G462" s="74"/>
-      <c r="H462" s="74"/>
-      <c r="I462" s="74"/>
+      <c r="G462" s="75"/>
+      <c r="H462" s="75"/>
+      <c r="I462" s="75"/>
       <c r="J462" s="5" t="s">
         <v>48</v>
       </c>
@@ -22103,11 +22108,11 @@
       <c r="Q462" s="5">
         <v>9.060502416E9</v>
       </c>
-      <c r="R462" s="78" t="s">
+      <c r="R462" s="79" t="s">
         <v>323</v>
       </c>
       <c r="S462" s="16"/>
-      <c r="T462" s="79"/>
+      <c r="T462" s="80"/>
       <c r="U462" s="5" t="s">
         <v>42</v>
       </c>
@@ -22434,25 +22439,25 @@
       <c r="AG471" s="20"/>
     </row>
     <row r="472">
-      <c r="A472" s="80" t="s">
+      <c r="A472" s="81" t="s">
         <v>431</v>
       </c>
-      <c r="B472" s="75" t="s">
+      <c r="B472" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="C472" s="75" t="s">
+      <c r="C472" s="76" t="s">
         <v>432</v>
       </c>
-      <c r="D472" s="74"/>
+      <c r="D472" s="75"/>
       <c r="E472" s="46" t="s">
         <v>433</v>
       </c>
-      <c r="F472" s="83" t="s">
+      <c r="F472" s="63" t="s">
         <v>434</v>
       </c>
-      <c r="G472" s="74"/>
-      <c r="H472" s="74"/>
-      <c r="I472" s="74"/>
+      <c r="G472" s="75"/>
+      <c r="H472" s="75"/>
+      <c r="I472" s="75"/>
       <c r="J472" s="5" t="s">
         <v>48</v>
       </c>
@@ -22477,13 +22482,13 @@
       <c r="Q472" s="5">
         <v>6.361201032E9</v>
       </c>
-      <c r="R472" s="78" t="s">
+      <c r="R472" s="79" t="s">
         <v>437</v>
       </c>
       <c r="S472" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="T472" s="79"/>
+      <c r="T472" s="80"/>
       <c r="U472" s="5" t="s">
         <v>139</v>
       </c>
@@ -22810,25 +22815,25 @@
       <c r="AG481" s="20"/>
     </row>
     <row r="482">
-      <c r="A482" s="80" t="s">
+      <c r="A482" s="81" t="s">
         <v>431</v>
       </c>
-      <c r="B482" s="75" t="s">
+      <c r="B482" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="C482" s="75" t="s">
+      <c r="C482" s="76" t="s">
         <v>440</v>
       </c>
-      <c r="D482" s="74"/>
+      <c r="D482" s="75"/>
       <c r="E482" s="46" t="s">
         <v>441</v>
       </c>
-      <c r="F482" s="83" t="s">
+      <c r="F482" s="63" t="s">
         <v>442</v>
       </c>
-      <c r="G482" s="74"/>
-      <c r="H482" s="74"/>
-      <c r="I482" s="74"/>
+      <c r="G482" s="75"/>
+      <c r="H482" s="75"/>
+      <c r="I482" s="75"/>
       <c r="J482" s="5" t="s">
         <v>28</v>
       </c>
@@ -22853,11 +22858,11 @@
       <c r="Q482" s="5">
         <v>8.073296927E9</v>
       </c>
-      <c r="R482" s="78" t="s">
+      <c r="R482" s="79" t="s">
         <v>445</v>
       </c>
       <c r="S482" s="16"/>
-      <c r="T482" s="79"/>
+      <c r="T482" s="80"/>
       <c r="U482" s="5" t="s">
         <v>139</v>
       </c>
@@ -23184,25 +23189,25 @@
       <c r="AG491" s="20"/>
     </row>
     <row r="492">
-      <c r="A492" s="80" t="s">
+      <c r="A492" s="81" t="s">
         <v>431</v>
       </c>
-      <c r="B492" s="75" t="s">
+      <c r="B492" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="C492" s="75" t="s">
+      <c r="C492" s="76" t="s">
         <v>447</v>
       </c>
-      <c r="D492" s="74"/>
+      <c r="D492" s="75"/>
       <c r="E492" s="84" t="s">
         <v>448</v>
       </c>
       <c r="F492" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="G492" s="74"/>
-      <c r="H492" s="74"/>
-      <c r="I492" s="74"/>
+      <c r="G492" s="75"/>
+      <c r="H492" s="75"/>
+      <c r="I492" s="75"/>
       <c r="J492" s="5" t="s">
         <v>48</v>
       </c>
@@ -23227,11 +23232,11 @@
       <c r="Q492" s="5">
         <v>7.829210954E9</v>
       </c>
-      <c r="R492" s="78" t="s">
+      <c r="R492" s="79" t="s">
         <v>445</v>
       </c>
       <c r="S492" s="16"/>
-      <c r="T492" s="79"/>
+      <c r="T492" s="80"/>
       <c r="U492" s="5" t="s">
         <v>139</v>
       </c>
@@ -23558,25 +23563,25 @@
       <c r="AG501" s="20"/>
     </row>
     <row r="502">
-      <c r="A502" s="80" t="s">
+      <c r="A502" s="81" t="s">
         <v>431</v>
       </c>
-      <c r="B502" s="75" t="s">
+      <c r="B502" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="C502" s="75" t="s">
+      <c r="C502" s="76" t="s">
         <v>453</v>
       </c>
-      <c r="D502" s="74"/>
+      <c r="D502" s="75"/>
       <c r="E502" s="46" t="s">
         <v>454</v>
       </c>
       <c r="F502" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="G502" s="74"/>
-      <c r="H502" s="74"/>
-      <c r="I502" s="74"/>
+      <c r="G502" s="75"/>
+      <c r="H502" s="75"/>
+      <c r="I502" s="75"/>
       <c r="J502" s="5" t="s">
         <v>48</v>
       </c>
@@ -23601,11 +23606,11 @@
       <c r="Q502" s="86">
         <v>8.970292172E9</v>
       </c>
-      <c r="R502" s="78" t="s">
+      <c r="R502" s="79" t="s">
         <v>445</v>
       </c>
       <c r="S502" s="16"/>
-      <c r="T502" s="79"/>
+      <c r="T502" s="80"/>
       <c r="U502" s="5" t="s">
         <v>139</v>
       </c>
